--- a/finalproject/aws/results/aws-results.xlsx
+++ b/finalproject/aws/results/aws-results.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N1877d\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\code\CPE512\finalproject\aws\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984BA194-CDDB-4445-92C1-774B1D298237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA25C9BE-D608-43C1-AE4A-8A59B1671F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C0304D9-9BCE-4ADF-A7E7-2A7EE72DD37E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C0304D9-9BCE-4ADF-A7E7-2A7EE72DD37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$2:$D$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$2:$E$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +33,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>1 proc</t>
+  </si>
+  <si>
+    <t>2 procs</t>
+  </si>
+  <si>
+    <t>4 procs</t>
+  </si>
+  <si>
+    <t>8 procs</t>
+  </si>
+  <si>
+    <t>16 procs</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -74,12 +79,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,7 +206,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1 proc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -254,28 +275,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.6699999999999998E-4</c:v>
+                  <c:v>8.0800000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2283000000000001E-2</c:v>
+                  <c:v>5.6300000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12548500000000001</c:v>
+                  <c:v>0.533632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46222099999999999</c:v>
+                  <c:v>2.202569</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76253000000000004</c:v>
+                  <c:v>5.8915129999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5870220000000002</c:v>
+                  <c:v>8.9454989999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.243667000000002</c:v>
+                  <c:v>35.984622999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.995512000000002</c:v>
+                  <c:v>52.166978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,7 +317,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2 procs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -365,28 +386,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.6200000000000002E-4</c:v>
+                  <c:v>2.6699999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.15E-2</c:v>
+                  <c:v>1.2283000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4357999999999994E-2</c:v>
+                  <c:v>0.12548500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36762800000000001</c:v>
+                  <c:v>0.46222099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76836800000000005</c:v>
+                  <c:v>0.76253000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.106185</c:v>
+                  <c:v>5.5870220000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.671053000000001</c:v>
+                  <c:v>32.243667000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.669948000000002</c:v>
+                  <c:v>30.995512000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -407,7 +428,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>4 procs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -476,28 +497,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.0899999999999998E-4</c:v>
+                  <c:v>3.6200000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3410000000000003E-3</c:v>
+                  <c:v>1.15E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8197000000000003E-2</c:v>
+                  <c:v>7.4357999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28469899999999998</c:v>
+                  <c:v>0.36762800000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.584476</c:v>
+                  <c:v>0.76836800000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.787391</c:v>
+                  <c:v>4.106185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.814728000000001</c:v>
+                  <c:v>23.671053000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.432916000000001</c:v>
+                  <c:v>22.669948000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,7 +539,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>8 procs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -587,28 +608,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.22E-4</c:v>
+                  <c:v>3.0899999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.905E-3</c:v>
+                  <c:v>5.3410000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0275000000000004E-2</c:v>
+                  <c:v>7.8197000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.319017</c:v>
+                  <c:v>0.28469899999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36762600000000001</c:v>
+                  <c:v>0.584476</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5813710000000001</c:v>
+                  <c:v>2.787391</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8613660000000003</c:v>
+                  <c:v>15.814728000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6973129999999998</c:v>
+                  <c:v>15.432916000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,8 +641,118 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 procs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.22E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.905E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0275000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.319017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36762600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5813710000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.850697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6973129999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DD1C-404F-B75D-5A9F73D17665}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -871,7 +1002,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1512,16 +1643,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>536572</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>41274</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1846,161 +1977,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25B6603-DAF7-4985-BCE5-9E900CC2CDD6}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1">
-        <v>8</v>
-      </c>
-      <c r="E1">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>32</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
+        <v>8.0800000000000002E-4</v>
+      </c>
+      <c r="C2" s="1">
         <v>2.6699999999999998E-4</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>3.6200000000000002E-4</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>3.0899999999999998E-4</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="1">
         <v>2.22E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>256</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
+        <v>5.6300000000000002E-4</v>
+      </c>
+      <c r="C3" s="1">
         <v>1.2283000000000001E-2</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="1">
         <v>1.15E-2</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="1">
         <v>5.3410000000000003E-3</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="1">
         <v>2.905E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>512</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
+        <v>0.533632</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.12548500000000001</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="1">
         <v>7.4357999999999994E-2</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
         <v>7.8197000000000003E-2</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="1">
         <v>7.0275000000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>1024</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
+        <v>2.202569</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.46222099999999999</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="1">
         <v>0.36762800000000001</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="1">
         <v>0.28469899999999998</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="1">
         <v>0.319017</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2048</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
+        <v>5.8915129999999998</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.76253000000000004</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="1">
         <v>0.76836800000000005</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="1">
         <v>0.584476</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="1">
         <v>0.36762600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>4096</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
+        <v>8.9454989999999999</v>
+      </c>
+      <c r="C7" s="1">
         <v>5.5870220000000002</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="1">
         <v>4.106185</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="1">
         <v>2.787391</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="1">
         <v>1.5813710000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>8192</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
+        <v>35.984622999999999</v>
+      </c>
+      <c r="C8" s="1">
         <v>32.243667000000002</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="1">
         <v>23.671053000000001</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="1">
         <v>15.814728000000001</v>
       </c>
-      <c r="E8">
-        <v>8.8613660000000003</v>
+      <c r="F8" s="1">
+        <v>1.850697</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>10000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
+        <v>52.166978</v>
+      </c>
+      <c r="C9" s="1">
         <v>30.995512000000002</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="1">
         <v>22.669948000000002</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="1">
         <v>15.432916000000001</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="1">
         <v>2.6973129999999998</v>
       </c>
     </row>
